--- a/models/calculation engines/economic_overlay/outputs/collapse_accumulated_bauxite-tonnages_per_depth_range.xlsx
+++ b/models/calculation engines/economic_overlay/outputs/collapse_accumulated_bauxite-tonnages_per_depth_range.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J163"/>
+  <dimension ref="A1:J176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,7 +488,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>589469.2633912116</v>
+        <v>344049.5128912116</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -808,7 +808,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>30719.85</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>129655.4</v>
+        <v>54894.645</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0</v>
+        <v>42805.39199999999</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
@@ -968,7 +968,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>198940</v>
+        <v>0</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>17917.2</v>
+        <v>0</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
@@ -1160,7 +1160,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>9795.799999999999</v>
+        <v>0</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
@@ -1224,7 +1224,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>135990.3896412116</v>
+        <v>0</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
@@ -1320,7 +1320,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2857.37375</v>
+        <v>0</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>63593.24999999999</v>
+        <v>0</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
@@ -2152,7 +2152,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0</v>
+        <v>340.0599999999999</v>
       </c>
       <c r="B54" t="n">
         <v>0</v>
@@ -2376,7 +2376,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0</v>
+        <v>16797.5325</v>
       </c>
       <c r="B61" t="n">
         <v>0</v>
@@ -2472,7 +2472,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0</v>
+        <v>6324.57</v>
       </c>
       <c r="B64" t="n">
         <v>0</v>
@@ -2600,7 +2600,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0</v>
+        <v>20446.3</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
@@ -3784,7 +3784,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0</v>
+        <v>135990.3896412116</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -4488,7 +4488,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0</v>
+        <v>2857.37375</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
@@ -4584,7 +4584,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0</v>
+        <v>63593.25</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
@@ -5667,6 +5667,422 @@
         <v>0</v>
       </c>
       <c r="J163" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>0</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>0</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>0</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>0</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>0</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>0</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>0</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
         <v>0</v>
       </c>
     </row>
